--- a/mixing_tables/220616_CRISPRa_fans.xlsx
+++ b/mixing_tables/220616_CRISPRa_fans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\mixing_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD44B7E-CD34-40F9-815A-4573F98B0170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79187119-8A57-4E8B-A8BE-1EB1C5D1836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,12 +39,6 @@
     <t>pDA317</t>
   </si>
   <si>
-    <t>pDA313</t>
-  </si>
-  <si>
-    <t>pDA318</t>
-  </si>
-  <si>
     <t>pDA310</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>pos/neg = +/- node 1</t>
+  </si>
+  <si>
+    <t>pDA311</t>
+  </si>
+  <si>
+    <t>pDA316</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -499,30 +499,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1.4999999999999999E-2</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1.4999999999999999E-2</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1.4999999999999999E-2</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>1.4999999999999999E-2</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>1.4999999999999999E-2</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>4.4999999999999998E-2</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>4.4999999999999998E-2</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>4.4999999999999998E-2</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>4.4999999999999998E-2</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>4.4999999999999998E-2</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1126,27 +1126,27 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
